--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v4.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v4.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$J$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$J$74</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="274">
   <si>
     <t>GLN</t>
   </si>
@@ -890,6 +890,15 @@
   </si>
   <si>
     <t>In favour of 0196</t>
+  </si>
+  <si>
+    <t>SG:UIN</t>
+  </si>
+  <si>
+    <t>0195</t>
+  </si>
+  <si>
+    <t>Singaport Nationwide E-Invoice Framework</t>
   </si>
 </sst>
 </file>
@@ -1399,11 +1408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,15 +1837,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>269</v>
@@ -1846,39 +1855,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>3</v>
+        <v>267</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="E19" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>106</v>
@@ -1887,19 +1890,22 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>95</v>
+      <c r="G20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>106</v>
@@ -1909,18 +1915,18 @@
         <v>0</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>106</v>
@@ -1933,15 +1939,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>106</v>
@@ -1951,18 +1957,18 @@
         <v>0</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>106</v>
@@ -1972,18 +1978,18 @@
         <v>0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>106</v>
@@ -1992,13 +1998,16 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
+      <c r="I25" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -2007,82 +2016,82 @@
         <v>106</v>
       </c>
       <c r="E26" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="6" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="F27" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="8">
         <v>990399123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E28" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="6" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="F29" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>106</v>
@@ -2091,19 +2100,16 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>106</v>
@@ -2112,37 +2118,37 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
+      <c r="I31" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E32" s="6" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>106</v>
@@ -2152,60 +2158,60 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="6" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E35" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>108</v>
@@ -2214,34 +2220,37 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
+      <c r="G36" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>174</v>
@@ -2253,13 +2262,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>174</v>
@@ -2271,13 +2280,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>174</v>
@@ -2289,13 +2298,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>174</v>
@@ -2307,13 +2316,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>174</v>
@@ -2325,13 +2334,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>174</v>
@@ -2343,13 +2352,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>174</v>
@@ -2361,13 +2370,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>174</v>
@@ -2379,13 +2388,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>174</v>
@@ -2397,31 +2406,31 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>174</v>
@@ -2433,13 +2442,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>174</v>
@@ -2451,13 +2460,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>174</v>
@@ -2469,13 +2478,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>174</v>
@@ -2487,13 +2496,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>174</v>
@@ -2505,13 +2514,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>174</v>
@@ -2523,13 +2532,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>174</v>
@@ -2541,13 +2550,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>174</v>
@@ -2559,13 +2568,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>174</v>
@@ -2577,49 +2586,49 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E57" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="D58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>174</v>
@@ -2631,13 +2640,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>174</v>
@@ -2649,13 +2658,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>174</v>
@@ -2667,13 +2676,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>174</v>
@@ -2685,13 +2694,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>174</v>
@@ -2703,13 +2712,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>174</v>
@@ -2721,13 +2730,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>174</v>
@@ -2739,13 +2748,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>174</v>
@@ -2757,13 +2766,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>174</v>
@@ -2775,112 +2784,109 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E68" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="D69" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E69" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="D70" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E70" s="6" t="b">
+      <c r="E71" s="6" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E71" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E72" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>230</v>
@@ -2889,30 +2895,51 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="G73" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E74" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="2" t="s">
+      <c r="E75" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>262</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J73"/>
+  <autoFilter ref="A1:J74"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v4.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v4.xlsx
@@ -892,13 +892,13 @@
     <t>In favour of 0196</t>
   </si>
   <si>
-    <t>SG:UIN</t>
-  </si>
-  <si>
     <t>0195</t>
   </si>
   <si>
     <t>Singaport Nationwide E-Invoice Framework</t>
+  </si>
+  <si>
+    <t>SG:UEN</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1412,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>269</v>

--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v4.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v4.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="18915" windowHeight="12300"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="18920" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$J$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$J$75</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="278">
   <si>
     <t>GLN</t>
   </si>
@@ -900,12 +900,25 @@
   <si>
     <t>SG:UEN</t>
   </si>
+  <si>
+    <t>EU:NAL</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>European Commission, Information Directorate, Data Transmission Service, Rue de
+la Loi, 200, B-1049 Brussels, Belgium</t>
+  </si>
+  <si>
+    <t>1) ICD 4 digits, 2) None</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1407,30 +1420,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.140625" style="2"/>
+    <col min="1" max="1" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.81640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="34.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1462,7 +1475,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="101.5">
       <c r="A2" s="2" t="s">
         <v>214</v>
       </c>
@@ -1489,7 +1502,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="29">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1513,7 +1526,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="29">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1537,7 +1550,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="130.5">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1564,7 +1577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1588,7 +1601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="72.5">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1636,7 +1649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="116">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1660,7 +1673,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="29">
       <c r="A10" s="2" t="s">
         <v>219</v>
       </c>
@@ -1678,39 +1691,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="58">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="E11" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="130.5">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>106</v>
@@ -1720,60 +1733,66 @@
         <v>0</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E13" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="E14" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E14" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>249</v>
@@ -1782,22 +1801,16 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" ht="29">
       <c r="A16" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>249</v>
@@ -1807,63 +1820,69 @@
         <v>0</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="58">
       <c r="A17" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E17" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="43.5">
       <c r="A18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29">
+      <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>269</v>
@@ -1873,39 +1892,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="29">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>106</v>
@@ -1914,19 +1927,22 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="29">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>106</v>
@@ -1936,18 +1952,18 @@
         <v>0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="29">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>106</v>
@@ -1960,15 +1976,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>106</v>
@@ -1978,18 +1994,18 @@
         <v>0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>106</v>
@@ -1999,18 +2015,18 @@
         <v>0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="87">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>106</v>
@@ -2019,13 +2035,16 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I26" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="29">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -2034,82 +2053,82 @@
         <v>106</v>
       </c>
       <c r="E27" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="29">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="6" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="F28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="8">
         <v>990399123</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E29" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="6" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="F30" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>106</v>
@@ -2118,19 +2137,16 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" ht="29">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>106</v>
@@ -2139,37 +2155,37 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="I32" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="29">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E33" s="6" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="29">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>106</v>
@@ -2179,60 +2195,60 @@
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="6" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:10" ht="43.5">
+      <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="E36" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>108</v>
@@ -2241,673 +2257,673 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="G37" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="29">
       <c r="A38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="D39" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="D40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="D41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="D42" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="D43" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E43" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="D44" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E44" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="D45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="D46" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="D47" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="D48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="D49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="D50" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="D51" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="D52" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="D53" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="D54" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="D55" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="D56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="D57" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E57" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="D58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="D59" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="29">
+      <c r="A60" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E59" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="D60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E60" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="D61" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="D62" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E62" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="D63" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E63" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="D64" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E64" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E64" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="D65" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="D66" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E66" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="D67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E67" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="D68" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E68" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="D69" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E69" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="D70" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E70" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="D71" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E71" s="6" t="b">
+      <c r="E72" s="6" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:10">
+      <c r="A73" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E72" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="E73" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E73" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>230</v>
@@ -2916,30 +2932,51 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="G74" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="43.5">
+      <c r="A76" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E75" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="s">
+      <c r="E76" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>262</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J74"/>
+  <autoFilter ref="A1:J75"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
